--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ptn-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Ptprz1</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>38.4394045931369</v>
+        <v>0.229395</v>
       </c>
       <c r="H2">
-        <v>38.4394045931369</v>
+        <v>0.688185</v>
       </c>
       <c r="I2">
-        <v>0.8562449178636586</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J2">
-        <v>0.8562449178636586</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.1567672601022</v>
+        <v>0.006601</v>
       </c>
       <c r="N2">
-        <v>5.1567672601022</v>
+        <v>0.019803</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0009255397585646605</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001383055057785483</v>
       </c>
       <c r="Q2">
-        <v>198.2230631037105</v>
+        <v>0.001514236395</v>
       </c>
       <c r="R2">
-        <v>198.2230631037105</v>
+        <v>0.013628127555</v>
       </c>
       <c r="S2">
-        <v>0.8562449178636586</v>
+        <v>4.193173182695758E-06</v>
       </c>
       <c r="T2">
-        <v>0.8562449178636586</v>
+        <v>6.548088773898519E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.45359715342374</v>
+        <v>0.229395</v>
       </c>
       <c r="H3">
-        <v>6.45359715342374</v>
+        <v>0.688185</v>
       </c>
       <c r="I3">
-        <v>0.1437550821363413</v>
+        <v>0.004530516537937374</v>
       </c>
       <c r="J3">
-        <v>0.1437550821363413</v>
+        <v>0.004734510558374423</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.1567672601022</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N3">
-        <v>5.1567672601022</v>
+        <v>0.049159</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00229756142964602</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003433298166221107</v>
       </c>
       <c r="Q3">
-        <v>33.2796985106643</v>
+        <v>0.003758942935</v>
       </c>
       <c r="R3">
-        <v>33.2796985106643</v>
+        <v>0.03383048641500001</v>
       </c>
       <c r="S3">
-        <v>0.1437550821363413</v>
+        <v>1.040914005393833E-05</v>
       </c>
       <c r="T3">
-        <v>0.1437550821363413</v>
+        <v>1.625498641802138E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.229395</v>
+      </c>
+      <c r="H4">
+        <v>0.688185</v>
+      </c>
+      <c r="I4">
+        <v>0.004530516537937374</v>
+      </c>
+      <c r="J4">
+        <v>0.004734510558374423</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P4">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q4">
+        <v>0.007158423905000001</v>
+      </c>
+      <c r="R4">
+        <v>0.06442581514500001</v>
+      </c>
+      <c r="S4">
+        <v>1.982286996134065E-05</v>
+      </c>
+      <c r="T4">
+        <v>3.095553334070886E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.229395</v>
+      </c>
+      <c r="H5">
+        <v>0.688185</v>
+      </c>
+      <c r="I5">
+        <v>0.004530516537937374</v>
+      </c>
+      <c r="J5">
+        <v>0.004734510558374423</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>7.0778615</v>
+      </c>
+      <c r="N5">
+        <v>14.155723</v>
+      </c>
+      <c r="O5">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P5">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q5">
+        <v>1.6236260387925</v>
+      </c>
+      <c r="R5">
+        <v>9.741756232755002</v>
+      </c>
+      <c r="S5">
+        <v>0.004496091354739399</v>
+      </c>
+      <c r="T5">
+        <v>0.004680751949841795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H6">
+        <v>131.577157</v>
+      </c>
+      <c r="I6">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J6">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.006601</v>
+      </c>
+      <c r="N6">
+        <v>0.019803</v>
+      </c>
+      <c r="O6">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P6">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q6">
+        <v>0.2895136044523333</v>
+      </c>
+      <c r="R6">
+        <v>2.605622440071</v>
+      </c>
+      <c r="S6">
+        <v>0.0008017114673928513</v>
+      </c>
+      <c r="T6">
+        <v>0.001251958273797283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H7">
+        <v>131.577157</v>
+      </c>
+      <c r="I7">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J7">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.049159</v>
+      </c>
+      <c r="O7">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P7">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q7">
+        <v>0.718689051218111</v>
+      </c>
+      <c r="R7">
+        <v>6.468201460963</v>
+      </c>
+      <c r="S7">
+        <v>0.001990169874542502</v>
+      </c>
+      <c r="T7">
+        <v>0.003107863292511267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H8">
+        <v>131.577157</v>
+      </c>
+      <c r="I8">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J8">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P8">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q8">
+        <v>1.368650967429889</v>
+      </c>
+      <c r="R8">
+        <v>12.317858706869</v>
+      </c>
+      <c r="S8">
+        <v>0.003790022847190657</v>
+      </c>
+      <c r="T8">
+        <v>0.005918526370654962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>43.85905233333333</v>
+      </c>
+      <c r="H9">
+        <v>131.577157</v>
+      </c>
+      <c r="I9">
+        <v>0.8662096468293877</v>
+      </c>
+      <c r="J9">
+        <v>0.9052121726823298</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.0778615</v>
+      </c>
+      <c r="N9">
+        <v>14.155723</v>
+      </c>
+      <c r="O9">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P9">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q9">
+        <v>310.4282979365851</v>
+      </c>
+      <c r="R9">
+        <v>1862.569787619511</v>
+      </c>
+      <c r="S9">
+        <v>0.8596277426402618</v>
+      </c>
+      <c r="T9">
+        <v>0.8949338247453664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H10">
+        <v>13.089704</v>
+      </c>
+      <c r="I10">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J10">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006601</v>
+      </c>
+      <c r="N10">
+        <v>0.019803</v>
+      </c>
+      <c r="O10">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P10">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q10">
+        <v>0.04320256805200001</v>
+      </c>
+      <c r="R10">
+        <v>0.259215408312</v>
+      </c>
+      <c r="S10">
+        <v>0.0001196351179891135</v>
+      </c>
+      <c r="T10">
+        <v>0.0001245486952143022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H11">
+        <v>13.089704</v>
+      </c>
+      <c r="I11">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J11">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.049159</v>
+      </c>
+      <c r="O11">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P11">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q11">
+        <v>0.1072461264893333</v>
+      </c>
+      <c r="R11">
+        <v>0.6434767589360001</v>
+      </c>
+      <c r="S11">
+        <v>0.0002969824150495799</v>
+      </c>
+      <c r="T11">
+        <v>0.0003091798872918184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H12">
+        <v>13.089704</v>
+      </c>
+      <c r="I12">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J12">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P12">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q12">
+        <v>0.2042364698946667</v>
+      </c>
+      <c r="R12">
+        <v>1.225418819368</v>
+      </c>
+      <c r="S12">
+        <v>0.0005655648558696583</v>
+      </c>
+      <c r="T12">
+        <v>0.0005887933747350062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.544852000000001</v>
+      </c>
+      <c r="H13">
+        <v>13.089704</v>
+      </c>
+      <c r="I13">
+        <v>0.1292598366326751</v>
+      </c>
+      <c r="J13">
+        <v>0.09005331675929572</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.0778615</v>
+      </c>
+      <c r="N13">
+        <v>14.155723</v>
+      </c>
+      <c r="O13">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P13">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q13">
+        <v>46.32355599399801</v>
+      </c>
+      <c r="R13">
+        <v>185.294223975992</v>
+      </c>
+      <c r="S13">
+        <v>0.1282776542437667</v>
+      </c>
+      <c r="T13">
+        <v>0.0890307948020546</v>
       </c>
     </row>
   </sheetData>
